--- a/data/varyInputsYearlyExp.xlsx
+++ b/data/varyInputsYearlyExp.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="deposit years" sheetId="1" r:id="rId1"/>
-    <sheet name="loan years" sheetId="2" r:id="rId2"/>
-    <sheet name="total years" sheetId="3" r:id="rId3"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1870,25 +1870,25 @@
         <v>1975</v>
       </c>
       <c r="B2">
-        <v>10.83333333333333</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="D2">
-        <v>7.583333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="E2">
-        <v>8.416666666666666</v>
+        <v>7.25</v>
       </c>
       <c r="F2">
-        <v>7.583333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>8.416666666666666</v>
+        <v>7.25</v>
       </c>
       <c r="I2">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1896,25 +1896,25 @@
         <v>1976</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="C3">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="D3">
-        <v>7.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="F3">
-        <v>9.75</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="G3">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="I3">
-        <v>8.5</v>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1922,25 +1922,25 @@
         <v>1977</v>
       </c>
       <c r="B4">
-        <v>11.08333333333333</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="C4">
-        <v>10.5</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D4">
-        <v>7.916666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="E4">
-        <v>9.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F4">
-        <v>10.16666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="G4">
-        <v>10.16666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I4">
-        <v>8.333333333333334</v>
+        <v>6.916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1948,25 +1948,25 @@
         <v>1978</v>
       </c>
       <c r="B5">
-        <v>11.66666666666667</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="C5">
-        <v>9.916666666666666</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>7.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E5">
-        <v>8.666666666666666</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="F5">
-        <v>10.16666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="G5">
-        <v>9.166666666666666</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>7.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1974,25 +1974,25 @@
         <v>1979</v>
       </c>
       <c r="B6">
-        <v>13.91666666666667</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="C6">
-        <v>9.333333333333334</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="E6">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F6">
         <v>7.583333333333333</v>
       </c>
-      <c r="E6">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="F6">
-        <v>9.5</v>
-      </c>
       <c r="G6">
-        <v>8.833333333333334</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="I6">
-        <v>7.666666666666667</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2000,25 +2000,25 @@
         <v>1980</v>
       </c>
       <c r="B7">
-        <v>20.5</v>
+        <v>16.41666666666667</v>
       </c>
       <c r="C7">
-        <v>9.166666666666666</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D7">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="E7">
-        <v>8.416666666666666</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="F7">
-        <v>9.333333333333334</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.666666666666666</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2026,25 +2026,25 @@
         <v>1981</v>
       </c>
       <c r="B8">
-        <v>22.58333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="C8">
-        <v>9.833333333333334</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8">
-        <v>10.66666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="E8">
-        <v>8.75</v>
+        <v>6.75</v>
       </c>
       <c r="F8">
-        <v>9.666666666666666</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
-        <v>8.25</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="I8">
-        <v>11.16666666666667</v>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2052,25 +2052,25 @@
         <v>1982</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="C9">
-        <v>9.666666666666666</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>12.75</v>
+        <v>9.75</v>
       </c>
       <c r="E9">
-        <v>8.916666666666666</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="F9">
-        <v>9.916666666666666</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="G9">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="I9">
-        <v>10.25</v>
+        <v>7.916666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2078,25 +2078,25 @@
         <v>1983</v>
       </c>
       <c r="B10">
-        <v>17.83333333333333</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>7.75</v>
       </c>
       <c r="D10">
-        <v>11.25</v>
+        <v>8.75</v>
       </c>
       <c r="E10">
-        <v>9.333333333333334</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="F10">
-        <v>8.916666666666666</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="G10">
-        <v>7.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="I10">
-        <v>11</v>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2104,25 +2104,25 @@
         <v>1984</v>
       </c>
       <c r="B11">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="C11">
-        <v>12.33333333333333</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D11">
-        <v>11.33333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="F11">
-        <v>8.083333333333334</v>
+        <v>6.25</v>
       </c>
       <c r="G11">
-        <v>7.916666666666667</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>13.5</v>
+        <v>10.66666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2130,25 +2130,25 @@
         <v>1985</v>
       </c>
       <c r="B12">
-        <v>16.66666666666667</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="C12">
-        <v>13.75</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>11.16666666666667</v>
+        <v>8.75</v>
       </c>
       <c r="E12">
-        <v>13.75</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>8.416666666666666</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="G12">
-        <v>9.916666666666666</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="I12">
-        <v>13.75</v>
+        <v>10.91666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2156,28 +2156,28 @@
         <v>1986</v>
       </c>
       <c r="B13">
-        <v>16.66666666666667</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="C13">
-        <v>13.58333333333333</v>
+        <v>11.25</v>
       </c>
       <c r="D13">
+        <v>8.25</v>
+      </c>
+      <c r="E13">
         <v>10.25</v>
       </c>
-      <c r="E13">
-        <v>12.5</v>
-      </c>
       <c r="F13">
-        <v>8.583333333333334</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="G13">
-        <v>9.083333333333334</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="H13">
-        <v>13.16666666666667</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I13">
-        <v>12.16666666666667</v>
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2185,28 +2185,28 @@
         <v>1987</v>
       </c>
       <c r="B14">
-        <v>18.41666666666667</v>
+        <v>16.41666666666667</v>
       </c>
       <c r="C14">
-        <v>13.25</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="D14">
-        <v>9.166666666666666</v>
+        <v>7.5</v>
       </c>
       <c r="E14">
-        <v>11.16666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="F14">
-        <v>8.166666666666666</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="G14">
-        <v>9.333333333333334</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="H14">
-        <v>10.58333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="I14">
-        <v>10.58333333333333</v>
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2214,28 +2214,28 @@
         <v>1988</v>
       </c>
       <c r="B15">
-        <v>19.75</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>9.583333333333334</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="E15">
-        <v>11.16666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="F15">
-        <v>9.916666666666666</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="G15">
-        <v>9.25</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="H15">
-        <v>10.41666666666667</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="I15">
-        <v>11.08333333333333</v>
+        <v>9.166666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2243,28 +2243,28 @@
         <v>1989</v>
       </c>
       <c r="B16">
-        <v>22.16666666666667</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="C16">
-        <v>16.83333333333333</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="D16">
-        <v>12.41666666666667</v>
+        <v>10.75</v>
       </c>
       <c r="E16">
-        <v>11.58333333333333</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="F16">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="G16">
-        <v>9.916666666666666</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="H16">
-        <v>10.16666666666667</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="I16">
-        <v>11.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2272,28 +2272,28 @@
         <v>1990</v>
       </c>
       <c r="B17">
-        <v>21.75</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="C17">
-        <v>14.33333333333333</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>12.91666666666667</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="E17">
-        <v>10.91666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F17">
-        <v>10.66666666666667</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="G17">
-        <v>9.333333333333334</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="H17">
-        <v>10.08333333333333</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="I17">
-        <v>10.75</v>
+        <v>9.416666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2301,28 +2301,28 @@
         <v>1991</v>
       </c>
       <c r="B18">
-        <v>17.75</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="C18">
-        <v>12.25</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>12.16666666666667</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="E18">
-        <v>10.33333333333333</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="F18">
-        <v>9.25</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="G18">
-        <v>9.166666666666666</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>9.916666666666666</v>
+        <v>8.75</v>
       </c>
       <c r="I18">
-        <v>10.91666666666667</v>
+        <v>9.666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2330,28 +2330,28 @@
         <v>1992</v>
       </c>
       <c r="B19">
-        <v>16.33333333333333</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="C19">
-        <v>11.08333333333333</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="D19">
-        <v>12.08333333333333</v>
+        <v>10.75</v>
       </c>
       <c r="E19">
-        <v>9.916666666666666</v>
+        <v>8.75</v>
       </c>
       <c r="F19">
-        <v>8.833333333333334</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="G19">
-        <v>9.083333333333334</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="H19">
-        <v>10.5</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="I19">
-        <v>11.58333333333333</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2359,28 +2359,28 @@
         <v>1993</v>
       </c>
       <c r="B20">
-        <v>15.91666666666667</v>
+        <v>14.25</v>
       </c>
       <c r="C20">
+        <v>9.25</v>
+      </c>
+      <c r="D20">
         <v>10.66666666666667</v>
       </c>
-      <c r="D20">
-        <v>12.16666666666667</v>
-      </c>
       <c r="E20">
-        <v>9.75</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="F20">
-        <v>9.333333333333334</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>9.5</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H20">
-        <v>12.16666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="I20">
-        <v>11.33333333333333</v>
+        <v>9.833333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2388,28 +2388,28 @@
         <v>1994</v>
       </c>
       <c r="B21">
-        <v>15.66666666666667</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="C21">
-        <v>10.66666666666667</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>12.33333333333333</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="E21">
-        <v>9.666666666666666</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="F21">
-        <v>9.916666666666666</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="G21">
-        <v>9.75</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H21">
-        <v>12.41666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="I21">
-        <v>11.08333333333333</v>
+        <v>9.416666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2417,28 +2417,28 @@
         <v>1995</v>
       </c>
       <c r="B22">
-        <v>15.33333333333333</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="C22">
-        <v>10.16666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="D22">
-        <v>12.16666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E22">
-        <v>9.083333333333334</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="F22">
-        <v>9.833333333333334</v>
+        <v>8.25</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H22">
-        <v>12.58333333333333</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="I22">
-        <v>10.25</v>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2446,28 +2446,28 @@
         <v>1996</v>
       </c>
       <c r="B23">
-        <v>15.5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="C23">
-        <v>9.666666666666666</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D23">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="E23">
-        <v>8.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="F23">
-        <v>9.25</v>
+        <v>7.75</v>
       </c>
       <c r="G23">
-        <v>8.583333333333334</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="H23">
-        <v>11.58333333333333</v>
+        <v>9.75</v>
       </c>
       <c r="I23">
-        <v>9.416666666666666</v>
+        <v>7.916666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2475,28 +2475,28 @@
         <v>1997</v>
       </c>
       <c r="B24">
-        <v>16.25</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="C24">
-        <v>9.833333333333334</v>
+        <v>8.25</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="E24">
-        <v>8.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F24">
-        <v>9.25</v>
+        <v>7.75</v>
       </c>
       <c r="G24">
-        <v>8.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="H24">
-        <v>11.75</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="I24">
-        <v>8.916666666666666</v>
+        <v>7.416666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2504,28 +2504,28 @@
         <v>1998</v>
       </c>
       <c r="B25">
-        <v>16.58333333333333</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="C25">
-        <v>10.33333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D25">
-        <v>11.25</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="E25">
-        <v>8.333333333333334</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F25">
-        <v>9.25</v>
+        <v>7.75</v>
       </c>
       <c r="G25">
-        <v>7.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="H25">
-        <v>11.08333333333333</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="I25">
-        <v>8.666666666666666</v>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2533,28 +2533,28 @@
         <v>1999</v>
       </c>
       <c r="B26">
-        <v>17.5</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="C26">
-        <v>11.25</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D26">
-        <v>10.83333333333333</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="E26">
-        <v>8.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="F26">
+        <v>7.75</v>
+      </c>
+      <c r="G26">
+        <v>6.5</v>
+      </c>
+      <c r="H26">
         <v>9.25</v>
       </c>
-      <c r="G26">
-        <v>7.833333333333333</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
-      </c>
       <c r="I26">
-        <v>8.583333333333334</v>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2562,28 +2562,28 @@
         <v>2000</v>
       </c>
       <c r="B27">
-        <v>17.75</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C27">
-        <v>11.91666666666667</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="E27">
-        <v>8.666666666666666</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="F27">
-        <v>9.416666666666666</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="G27">
-        <v>7.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="I27">
-        <v>9.166666666666666</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2591,28 +2591,28 @@
         <v>2001</v>
       </c>
       <c r="B28">
-        <v>18.83333333333333</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="C28">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="D28">
-        <v>10.91666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="E28">
-        <v>9.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F28">
-        <v>9.583333333333334</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="G28">
-        <v>7.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="H28">
-        <v>10.5</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>8.416666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2620,28 +2620,28 @@
         <v>2002</v>
       </c>
       <c r="B29">
-        <v>21.91666666666667</v>
+        <v>21.08333333333333</v>
       </c>
       <c r="C29">
-        <v>15.08333333333333</v>
+        <v>13.08333333333333</v>
       </c>
       <c r="D29">
-        <v>11.66666666666667</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="E29">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>10.33333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="G29">
-        <v>8.083333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H29">
-        <v>10.58333333333333</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="I29">
-        <v>11.66666666666667</v>
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2649,28 +2649,28 @@
         <v>2003</v>
       </c>
       <c r="B30">
-        <v>23.33333333333333</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="C30">
-        <v>15.91666666666667</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="D30">
-        <v>14.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="E30">
-        <v>13.16666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F30">
-        <v>11.16666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="H30">
-        <v>10.83333333333333</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="I30">
-        <v>14.33333333333333</v>
+        <v>12.41666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2678,28 +2678,28 @@
         <v>2004</v>
       </c>
       <c r="B31">
-        <v>23.25</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="C31">
-        <v>16.5</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="D31">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>14.5</v>
+        <v>12.75</v>
       </c>
       <c r="F31">
-        <v>12.83333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="H31">
-        <v>12.08333333333333</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2707,28 +2707,28 @@
         <v>2005</v>
       </c>
       <c r="B32">
-        <v>21.83333333333333</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>16.25</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="D32">
-        <v>16.16666666666667</v>
+        <v>14.75</v>
       </c>
       <c r="E32">
-        <v>14.58333333333333</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>14.33333333333333</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="G32">
-        <v>13.66666666666667</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H32">
-        <v>13.58333333333333</v>
+        <v>12</v>
       </c>
       <c r="I32">
-        <v>15.5</v>
+        <v>13.91666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2736,28 +2736,28 @@
         <v>2006</v>
       </c>
       <c r="B33">
-        <v>20.58333333333333</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="C33">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="D33">
-        <v>16.16666666666667</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="E33">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="F33">
+        <v>17.5</v>
+      </c>
+      <c r="G33">
+        <v>12.83333333333333</v>
+      </c>
+      <c r="H33">
         <v>14.58333333333333</v>
       </c>
-      <c r="F33">
-        <v>18.08333333333333</v>
-      </c>
-      <c r="G33">
-        <v>14.16666666666667</v>
-      </c>
-      <c r="H33">
-        <v>15.75</v>
-      </c>
       <c r="I33">
-        <v>15.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2765,28 +2765,28 @@
         <v>2007</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="C34">
-        <v>16.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>17.25</v>
+        <v>16.75</v>
       </c>
       <c r="E34">
-        <v>15.58333333333333</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="F34">
-        <v>18.58333333333333</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="G34">
-        <v>14.41666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H34">
-        <v>16.41666666666667</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I34">
-        <v>16.5</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2794,28 +2794,28 @@
         <v>2008</v>
       </c>
       <c r="B35">
-        <v>18.41666666666667</v>
+        <v>18.58333333333333</v>
       </c>
       <c r="C35">
-        <v>16.25</v>
+        <v>15.91666666666667</v>
       </c>
       <c r="D35">
-        <v>17.16666666666667</v>
+        <v>17</v>
       </c>
       <c r="E35">
+        <v>15.41666666666667</v>
+      </c>
+      <c r="F35">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="G35">
+        <v>13.08333333333333</v>
+      </c>
+      <c r="H35">
         <v>15.91666666666667</v>
       </c>
-      <c r="F35">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="G35">
-        <v>14</v>
-      </c>
-      <c r="H35">
-        <v>16.41666666666667</v>
-      </c>
       <c r="I35">
-        <v>15.91666666666667</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2823,28 +2823,28 @@
         <v>2009</v>
       </c>
       <c r="B36">
-        <v>17.58333333333333</v>
+        <v>17.75</v>
       </c>
       <c r="C36">
-        <v>16.08333333333333</v>
+        <v>15.91666666666667</v>
       </c>
       <c r="D36">
-        <v>16.33333333333333</v>
+        <v>16.25</v>
       </c>
       <c r="E36">
-        <v>15.25</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="F36">
-        <v>16.08333333333333</v>
+        <v>15.91666666666667</v>
       </c>
       <c r="G36">
-        <v>13.66666666666667</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="H36">
-        <v>16.83333333333333</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I36">
-        <v>15.25</v>
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2852,28 +2852,28 @@
         <v>2010</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="C37">
-        <v>16.58333333333333</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D37">
         <v>16.25</v>
       </c>
       <c r="E37">
-        <v>15.5</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="F37">
-        <v>16.25</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="G37">
-        <v>14.16666666666667</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H37">
-        <v>17.08333333333333</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I37">
-        <v>16.08333333333333</v>
+        <v>15.83333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2881,28 +2881,28 @@
         <v>2011</v>
       </c>
       <c r="B38">
-        <v>16.58333333333333</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C38">
         <v>15.58333333333333</v>
       </c>
       <c r="D38">
-        <v>14.91666666666667</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="E38">
-        <v>14.41666666666667</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="F38">
-        <v>14.91666666666667</v>
+        <v>14.75</v>
       </c>
       <c r="G38">
-        <v>13.16666666666667</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="H38">
-        <v>15.66666666666667</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="I38">
-        <v>14.91666666666667</v>
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2910,28 +2910,28 @@
         <v>2012</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="C39">
         <v>14.58333333333333</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="E39">
-        <v>13.41666666666667</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="F39">
-        <v>14.33333333333333</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="G39">
-        <v>12.25</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H39">
-        <v>15.33333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="I39">
-        <v>13.91666666666667</v>
+        <v>13.58333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2939,28 +2939,28 @@
         <v>2013</v>
       </c>
       <c r="B40">
-        <v>15.58333333333333</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="D40">
-        <v>13.41666666666667</v>
+        <v>13.25</v>
       </c>
       <c r="E40">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="F40">
+        <v>13.91666666666667</v>
+      </c>
+      <c r="G40">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="H40">
+        <v>14.5</v>
+      </c>
+      <c r="I40">
         <v>12.91666666666667</v>
-      </c>
-      <c r="F40">
-        <v>14.08333333333333</v>
-      </c>
-      <c r="G40">
-        <v>11.83333333333333</v>
-      </c>
-      <c r="H40">
-        <v>14.66666666666667</v>
-      </c>
-      <c r="I40">
-        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2971,25 +2971,25 @@
         <v>15.16666666666667</v>
       </c>
       <c r="C41">
-        <v>13.25</v>
+        <v>13.08333333333333</v>
       </c>
       <c r="D41">
-        <v>12.75</v>
+        <v>12.5</v>
       </c>
       <c r="E41">
-        <v>12.41666666666667</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="F41">
-        <v>13.33333333333333</v>
+        <v>13.08333333333333</v>
       </c>
       <c r="G41">
-        <v>11.5</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="H41">
-        <v>14.16666666666667</v>
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>13.41666666666667</v>
+        <v>13.08333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3000,25 +3000,25 @@
         <v>14.91666666666667</v>
       </c>
       <c r="C42">
-        <v>12.75</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="D42">
-        <v>12.16666666666667</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="E42">
-        <v>11.83333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="F42">
-        <v>12.66666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="G42">
-        <v>10.83333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="H42">
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="I42">
-        <v>13.16666666666667</v>
+        <v>12.83333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3026,28 +3026,28 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>14.25</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="C43">
-        <v>12.16666666666667</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>11.58333333333333</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E43">
-        <v>11.25</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="F43">
-        <v>11.75</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="G43">
-        <v>10.41666666666667</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>12.25</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="I43">
-        <v>12.66666666666667</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3055,28 +3055,28 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>13.66666666666667</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="C44">
-        <v>11.75</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="D44">
-        <v>10.91666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="E44">
-        <v>10.58333333333333</v>
+        <v>10.25</v>
       </c>
       <c r="F44">
-        <v>10.91666666666667</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="H44">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="I44">
-        <v>12.41666666666667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3084,28 +3084,28 @@
         <v>2018</v>
       </c>
       <c r="B45">
-        <v>12.58333333333333</v>
+        <v>12.25</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="D45">
-        <v>10.16666666666667</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="E45">
+        <v>9.5</v>
+      </c>
+      <c r="F45">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="G45">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="H45">
         <v>9.916666666666666</v>
       </c>
-      <c r="F45">
-        <v>10.08333333333333</v>
-      </c>
-      <c r="G45">
-        <v>9.666666666666666</v>
-      </c>
-      <c r="H45">
-        <v>10.41666666666667</v>
-      </c>
       <c r="I45">
-        <v>11.91666666666667</v>
+        <v>11.41666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3113,28 +3113,28 @@
         <v>2019</v>
       </c>
       <c r="B46">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D46">
-        <v>9.416666666666666</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>9.166666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="F46">
-        <v>9.25</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="G46">
-        <v>9.166666666666666</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="H46">
-        <v>9.416666666666666</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="I46">
-        <v>11.16666666666667</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3142,28 +3142,28 @@
         <v>2020</v>
       </c>
       <c r="B47">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="C47">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="D47">
-        <v>8.666666666666666</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="E47">
-        <v>8.416666666666666</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="F47">
-        <v>8.666666666666666</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>8.583333333333334</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="H47">
-        <v>8.833333333333334</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="I47">
-        <v>10.66666666666667</v>
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3171,28 +3171,28 @@
         <v>2021</v>
       </c>
       <c r="B48">
-        <v>10.66666666666667</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D48">
-        <v>8.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="E48">
-        <v>8.166666666666666</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F48">
-        <v>8.416666666666666</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="G48">
-        <v>8.416666666666666</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="H48">
-        <v>8.833333333333334</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="I48">
-        <v>10.91666666666667</v>
+        <v>10.16666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3200,28 +3200,28 @@
         <v>2022</v>
       </c>
       <c r="B49">
-        <v>10.5</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="C49">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>8.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E49">
-        <v>8.166666666666666</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="F49">
-        <v>8.416666666666666</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="G49">
-        <v>7.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="H49">
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>10.08333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3229,28 +3229,28 @@
         <v>2023</v>
       </c>
       <c r="B50">
-        <v>9.583333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="C50">
-        <v>7.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D50">
-        <v>7.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="E50">
-        <v>7.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F50">
-        <v>7.916666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="G50">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="H50">
-        <v>7.75</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="I50">
-        <v>9.833333333333334</v>
+        <v>8.916666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -3300,25 +3300,25 @@
         <v>1975</v>
       </c>
       <c r="B2">
-        <v>13.08333333333333</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D2">
-        <v>8.833333333333332</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="E2">
-        <v>11.25</v>
+        <v>9.666666666666668</v>
       </c>
       <c r="F2">
-        <v>10.75</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="G2">
-        <v>12.16666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I2">
-        <v>10.33333333333333</v>
+        <v>8.916666666666668</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3326,25 +3326,25 @@
         <v>1976</v>
       </c>
       <c r="B3">
-        <v>13.66666666666667</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="C3">
-        <v>11.91666666666667</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>8.916666666666668</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="E3">
-        <v>10.66666666666667</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="F3">
-        <v>12.16666666666667</v>
+        <v>10.25</v>
       </c>
       <c r="G3">
-        <v>11.16666666666667</v>
+        <v>9.5</v>
       </c>
       <c r="I3">
-        <v>9.333333333333334</v>
+        <v>7.916666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3352,25 +3352,25 @@
         <v>1977</v>
       </c>
       <c r="B4">
-        <v>15.91666666666667</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="C4">
-        <v>11.33333333333333</v>
+        <v>9.416666666666668</v>
       </c>
       <c r="D4">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="E4">
         <v>8.666666666666668</v>
       </c>
-      <c r="E4">
-        <v>10.33333333333333</v>
-      </c>
       <c r="F4">
-        <v>11.5</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="G4">
-        <v>10.83333333333333</v>
+        <v>9.083333333333332</v>
       </c>
       <c r="I4">
-        <v>8.833333333333332</v>
+        <v>7.416666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3378,25 +3378,25 @@
         <v>1978</v>
       </c>
       <c r="B5">
-        <v>22.5</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="C5">
-        <v>11.16666666666667</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="D5">
-        <v>8.583333333333332</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="E5">
-        <v>9.333333333333334</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F5">
-        <v>11.33333333333333</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="G5">
-        <v>10.66666666666667</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I5">
-        <v>8.666666666666668</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3404,25 +3404,25 @@
         <v>1979</v>
       </c>
       <c r="B6">
-        <v>24.58333333333333</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="C6">
-        <v>10.16666666666667</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="D6">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>9.416666666666666</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="F6">
-        <v>11.66666666666667</v>
+        <v>9.5</v>
       </c>
       <c r="G6">
-        <v>9.666666666666666</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="I6">
-        <v>9.5</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3430,25 +3430,25 @@
         <v>1980</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="C7">
-        <v>10.83333333333333</v>
+        <v>8.583333333333332</v>
       </c>
       <c r="D7">
-        <v>11.66666666666667</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="E7">
-        <v>9.75</v>
+        <v>7.75</v>
       </c>
       <c r="F7">
-        <v>10.66666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="G7">
-        <v>9.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="I7">
-        <v>12.16666666666667</v>
+        <v>9.583333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3456,25 +3456,25 @@
         <v>1981</v>
       </c>
       <c r="B8">
-        <v>19.83333333333333</v>
+        <v>16.83333333333334</v>
       </c>
       <c r="C8">
-        <v>10.66666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="D8">
-        <v>13.75</v>
+        <v>10.75</v>
       </c>
       <c r="E8">
-        <v>9.916666666666666</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="F8">
-        <v>10.91666666666667</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="G8">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
-        <v>11.25</v>
+        <v>8.916666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3482,25 +3482,25 @@
         <v>1982</v>
       </c>
       <c r="B9">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="D9">
-        <v>13.33333333333333</v>
+        <v>10.75</v>
       </c>
       <c r="E9">
-        <v>10.33333333333333</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="F9">
-        <v>9.916666666666666</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="G9">
-        <v>8.833333333333332</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>9.583333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3508,25 +3508,25 @@
         <v>1983</v>
       </c>
       <c r="B10">
-        <v>18.66666666666667</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="C10">
-        <v>13.33333333333333</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D10">
-        <v>12.33333333333333</v>
+        <v>9.75</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="F10">
-        <v>9.083333333333334</v>
+        <v>7.25</v>
       </c>
       <c r="G10">
-        <v>8.916666666666668</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>15.75</v>
+        <v>12.91666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3534,25 +3534,25 @@
         <v>1984</v>
       </c>
       <c r="B11">
-        <v>18.66666666666667</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="C11">
-        <v>15.58333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="D11">
-        <v>12.16666666666667</v>
+        <v>9.75</v>
       </c>
       <c r="E11">
-        <v>14.5</v>
+        <v>12.25</v>
       </c>
       <c r="F11">
-        <v>9.416666666666666</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="G11">
-        <v>10.91666666666667</v>
+        <v>8.583333333333332</v>
       </c>
       <c r="I11">
-        <v>14.16666666666667</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3560,25 +3560,25 @@
         <v>1985</v>
       </c>
       <c r="B12">
-        <v>20.41666666666667</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="C12">
-        <v>15.25</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="D12">
+        <v>9.25</v>
+      </c>
+      <c r="E12">
         <v>11.25</v>
       </c>
-      <c r="E12">
-        <v>13.16666666666667</v>
-      </c>
       <c r="F12">
-        <v>9.583333333333334</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="G12">
-        <v>10.08333333333333</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I12">
-        <v>12.58333333333333</v>
+        <v>10.66666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3586,28 +3586,28 @@
         <v>1986</v>
       </c>
       <c r="B13">
-        <v>21.75</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>10.16666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="E13">
-        <v>13.16666666666667</v>
+        <v>11.25</v>
       </c>
       <c r="F13">
-        <v>9.166666666666666</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="G13">
-        <v>10.33333333333333</v>
+        <v>8.583333333333332</v>
       </c>
       <c r="H13">
-        <v>12.41666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="I13">
-        <v>13.08333333333333</v>
+        <v>11.16666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3615,28 +3615,28 @@
         <v>1987</v>
       </c>
       <c r="B14">
-        <v>24.16666666666667</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="C14">
-        <v>18.83333333333333</v>
+        <v>17.08333333333334</v>
       </c>
       <c r="D14">
-        <v>10.58333333333333</v>
+        <v>8.916666666666668</v>
       </c>
       <c r="E14">
-        <v>13.58333333333333</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="F14">
-        <v>10.91666666666667</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="G14">
-        <v>10.25</v>
+        <v>8.583333333333332</v>
       </c>
       <c r="H14">
-        <v>11.41666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="I14">
-        <v>12.08333333333333</v>
+        <v>10.16666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3644,28 +3644,28 @@
         <v>1988</v>
       </c>
       <c r="B15">
-        <v>23.75</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="C15">
-        <v>16.33333333333334</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>13.41666666666667</v>
+        <v>11.75</v>
       </c>
       <c r="E15">
-        <v>12.91666666666667</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="F15">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="G15">
-        <v>10.91666666666667</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="H15">
-        <v>11.16666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="I15">
-        <v>12.75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3673,28 +3673,28 @@
         <v>1989</v>
       </c>
       <c r="B16">
-        <v>19.75</v>
+        <v>18.58333333333333</v>
       </c>
       <c r="C16">
-        <v>14.25</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>14.16666666666667</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="E16">
-        <v>12.33333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="F16">
-        <v>11.25</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="G16">
-        <v>10.33333333333333</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="H16">
-        <v>11.08333333333333</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="I16">
-        <v>12.91666666666667</v>
+        <v>11.66666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3702,28 +3702,28 @@
         <v>1990</v>
       </c>
       <c r="B17">
-        <v>18.91666666666666</v>
+        <v>17.25</v>
       </c>
       <c r="C17">
-        <v>13.08333333333333</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="D17">
-        <v>14.08333333333333</v>
+        <v>12.75</v>
       </c>
       <c r="E17">
-        <v>11.91666666666667</v>
+        <v>10.75</v>
       </c>
       <c r="F17">
-        <v>10.83333333333333</v>
+        <v>9.666666666666668</v>
       </c>
       <c r="G17">
-        <v>10.16666666666667</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>12.5</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I17">
-        <v>13.58333333333333</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3731,28 +3731,28 @@
         <v>1991</v>
       </c>
       <c r="B18">
-        <v>18.66666666666666</v>
+        <v>16.58333333333334</v>
       </c>
       <c r="C18">
+        <v>11.25</v>
+      </c>
+      <c r="D18">
         <v>12.66666666666667</v>
       </c>
-      <c r="D18">
-        <v>14.16666666666667</v>
-      </c>
       <c r="E18">
-        <v>11.75</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="F18">
-        <v>11.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>11.5</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H18">
-        <v>14.16666666666667</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="I18">
-        <v>13.33333333333333</v>
+        <v>11.83333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3760,28 +3760,28 @@
         <v>1992</v>
       </c>
       <c r="B19">
-        <v>18.33333333333334</v>
+        <v>16.16666666666666</v>
       </c>
       <c r="C19">
-        <v>12.66666666666667</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>14.33333333333333</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="E19">
-        <v>11.66666666666667</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="F19">
-        <v>11.91666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="G19">
-        <v>11.75</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H19">
-        <v>14.41666666666667</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="I19">
-        <v>13.08333333333333</v>
+        <v>11.41666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3789,28 +3789,28 @@
         <v>1993</v>
       </c>
       <c r="B20">
-        <v>18.5</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="C20">
-        <v>12.16666666666667</v>
+        <v>10.5</v>
       </c>
       <c r="D20">
-        <v>14.16666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="E20">
-        <v>11.08333333333333</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="F20">
-        <v>11.83333333333333</v>
+        <v>10.25</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="H20">
-        <v>14.58333333333333</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="I20">
-        <v>12.25</v>
+        <v>10.58333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3818,28 +3818,28 @@
         <v>1994</v>
       </c>
       <c r="B21">
-        <v>17.5</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="C21">
-        <v>11.66666666666667</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D21">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="E21">
-        <v>10.5</v>
+        <v>9.083333333333332</v>
       </c>
       <c r="F21">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="G21">
-        <v>10.58333333333333</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="H21">
-        <v>13.58333333333333</v>
+        <v>11.75</v>
       </c>
       <c r="I21">
-        <v>11.41666666666667</v>
+        <v>9.916666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3847,28 +3847,28 @@
         <v>1995</v>
       </c>
       <c r="B22">
-        <v>18.25</v>
+        <v>15.91666666666667</v>
       </c>
       <c r="C22">
-        <v>11.83333333333333</v>
+        <v>10.25</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="E22">
-        <v>10.25</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="F22">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="G22">
-        <v>10.25</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="H22">
-        <v>13.75</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="I22">
-        <v>10.91666666666667</v>
+        <v>9.416666666666668</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3876,28 +3876,28 @@
         <v>1996</v>
       </c>
       <c r="B23">
-        <v>20.5</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="C23">
-        <v>12.33333333333333</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D23">
-        <v>13.25</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="E23">
-        <v>10.33333333333333</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="F23">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="G23">
-        <v>9.75</v>
+        <v>8.416666666666668</v>
       </c>
       <c r="H23">
-        <v>13.08333333333333</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I23">
-        <v>10.66666666666667</v>
+        <v>9.166666666666668</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3905,28 +3905,28 @@
         <v>1997</v>
       </c>
       <c r="B24">
-        <v>20.75</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="C24">
-        <v>13.25</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="D24">
-        <v>12.83333333333333</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="E24">
-        <v>10.5</v>
+        <v>9.083333333333332</v>
       </c>
       <c r="F24">
+        <v>9.75</v>
+      </c>
+      <c r="G24">
+        <v>8.5</v>
+      </c>
+      <c r="H24">
         <v>11.25</v>
       </c>
-      <c r="G24">
-        <v>9.833333333333332</v>
-      </c>
-      <c r="H24">
-        <v>13</v>
-      </c>
       <c r="I24">
-        <v>10.58333333333333</v>
+        <v>9.166666666666668</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3934,28 +3934,28 @@
         <v>1998</v>
       </c>
       <c r="B25">
-        <v>21.83333333333333</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="C25">
-        <v>13.91666666666667</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="E25">
-        <v>10.66666666666667</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="F25">
-        <v>11.41666666666667</v>
+        <v>9.916666666666668</v>
       </c>
       <c r="G25">
-        <v>8.833333333333332</v>
+        <v>7.5</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I25">
-        <v>11.16666666666667</v>
+        <v>9.666666666666668</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3963,28 +3963,28 @@
         <v>1999</v>
       </c>
       <c r="B26">
-        <v>24.91666666666667</v>
+        <v>24.08333333333333</v>
       </c>
       <c r="C26">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="D26">
-        <v>12.91666666666667</v>
+        <v>11.25</v>
       </c>
       <c r="E26">
-        <v>11.25</v>
+        <v>9.666666666666668</v>
       </c>
       <c r="F26">
-        <v>11.58333333333333</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="G26">
-        <v>8.916666666666668</v>
+        <v>7.5</v>
       </c>
       <c r="H26">
-        <v>12.5</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3992,28 +3992,28 @@
         <v>2000</v>
       </c>
       <c r="B27">
-        <v>26.33333333333333</v>
+        <v>26.41666666666667</v>
       </c>
       <c r="C27">
-        <v>17.08333333333334</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="D27">
-        <v>13.66666666666667</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="E27">
-        <v>12.75</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>12.33333333333333</v>
+        <v>10.75</v>
       </c>
       <c r="G27">
-        <v>8.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="H27">
-        <v>12.58333333333333</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I27">
-        <v>13.66666666666667</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4021,28 +4021,28 @@
         <v>2001</v>
       </c>
       <c r="B28">
-        <v>26.25</v>
+        <v>26.41666666666667</v>
       </c>
       <c r="C28">
-        <v>17.91666666666666</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="D28">
-        <v>16.33333333333334</v>
+        <v>14.5</v>
       </c>
       <c r="E28">
-        <v>15.16666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F28">
-        <v>13.16666666666667</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="G28">
-        <v>9.083333333333334</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="H28">
-        <v>12.83333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I28">
-        <v>16.33333333333334</v>
+        <v>14.41666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4050,28 +4050,28 @@
         <v>2002</v>
       </c>
       <c r="B29">
-        <v>24.58333333333333</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="C29">
-        <v>18.5</v>
+        <v>16.91666666666666</v>
       </c>
       <c r="D29">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>16.5</v>
+        <v>14.75</v>
       </c>
       <c r="F29">
-        <v>14.83333333333333</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>13.25</v>
       </c>
       <c r="H29">
-        <v>14.08333333333333</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="I29">
-        <v>18</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4079,28 +4079,28 @@
         <v>2003</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="C30">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D30">
-        <v>18.16666666666667</v>
+        <v>16.75</v>
       </c>
       <c r="E30">
-        <v>16.58333333333334</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>16.33333333333334</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="G30">
-        <v>15.66666666666667</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="H30">
-        <v>15.58333333333333</v>
+        <v>14</v>
       </c>
       <c r="I30">
-        <v>17.5</v>
+        <v>15.91666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4108,28 +4108,28 @@
         <v>2004</v>
       </c>
       <c r="B31">
-        <v>22.41666666666667</v>
+        <v>22.58333333333333</v>
       </c>
       <c r="C31">
-        <v>19.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>20.25</v>
+        <v>19.75</v>
       </c>
       <c r="E31">
+        <v>15.16666666666667</v>
+      </c>
+      <c r="F31">
+        <v>19.5</v>
+      </c>
+      <c r="G31">
+        <v>14.83333333333333</v>
+      </c>
+      <c r="H31">
         <v>16.58333333333334</v>
       </c>
-      <c r="F31">
-        <v>20.08333333333333</v>
-      </c>
-      <c r="G31">
-        <v>16.16666666666666</v>
-      </c>
-      <c r="H31">
-        <v>17.75</v>
-      </c>
       <c r="I31">
-        <v>19.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4137,28 +4137,28 @@
         <v>2005</v>
       </c>
       <c r="B32">
-        <v>21.58333333333333</v>
+        <v>21.75</v>
       </c>
       <c r="C32">
-        <v>19.25</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="D32">
-        <v>20.16666666666667</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>17.58333333333334</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F32">
-        <v>19.66666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G32">
-        <v>16.41666666666666</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="H32">
-        <v>18.41666666666667</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I32">
-        <v>18.91666666666666</v>
+        <v>18.33333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4166,28 +4166,28 @@
         <v>2006</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="C33">
-        <v>19.08333333333333</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="D33">
-        <v>19.33333333333333</v>
+        <v>19.25</v>
       </c>
       <c r="E33">
-        <v>17.91666666666666</v>
+        <v>17.41666666666666</v>
       </c>
       <c r="F33">
-        <v>19.08333333333333</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="H33">
-        <v>19.83333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I33">
-        <v>18.25</v>
+        <v>17.66666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4195,28 +4195,28 @@
         <v>2007</v>
       </c>
       <c r="B34">
-        <v>20.58333333333333</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="C34">
-        <v>19.58333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="D34">
         <v>19.25</v>
       </c>
       <c r="E34">
-        <v>18.5</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="F34">
-        <v>19.25</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="G34">
-        <v>15.66666666666667</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="H34">
-        <v>20.08333333333333</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="I34">
-        <v>19.08333333333333</v>
+        <v>18.83333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4224,28 +4224,28 @@
         <v>2008</v>
       </c>
       <c r="B35">
-        <v>19.58333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="C35">
         <v>18.58333333333334</v>
       </c>
       <c r="D35">
-        <v>17.91666666666666</v>
+        <v>17.83333333333334</v>
       </c>
       <c r="E35">
-        <v>17.41666666666666</v>
+        <v>17.16666666666666</v>
       </c>
       <c r="F35">
-        <v>17.91666666666666</v>
+        <v>17.75</v>
       </c>
       <c r="G35">
-        <v>16.16666666666666</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="H35">
-        <v>18.66666666666666</v>
+        <v>18.58333333333334</v>
       </c>
       <c r="I35">
-        <v>17.91666666666666</v>
+        <v>17.66666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4253,28 +4253,28 @@
         <v>2009</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="C36">
         <v>17.58333333333334</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>16.83333333333334</v>
       </c>
       <c r="E36">
-        <v>16.41666666666666</v>
+        <v>16.16666666666666</v>
       </c>
       <c r="F36">
-        <v>17.33333333333334</v>
+        <v>17.16666666666666</v>
       </c>
       <c r="G36">
-        <v>15.16666666666667</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="H36">
-        <v>18.33333333333334</v>
+        <v>18.25</v>
       </c>
       <c r="I36">
-        <v>16.91666666666666</v>
+        <v>16.58333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4285,25 +4285,25 @@
         <v>19.16666666666666</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>16.91666666666666</v>
       </c>
       <c r="D37">
-        <v>16.41666666666666</v>
+        <v>16.25</v>
       </c>
       <c r="E37">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="F37">
+        <v>16.91666666666666</v>
+      </c>
+      <c r="G37">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="H37">
+        <v>17.5</v>
+      </c>
+      <c r="I37">
         <v>15.91666666666667</v>
-      </c>
-      <c r="F37">
-        <v>17.08333333333334</v>
-      </c>
-      <c r="G37">
-        <v>14.83333333333333</v>
-      </c>
-      <c r="H37">
-        <v>17.66666666666666</v>
-      </c>
-      <c r="I37">
-        <v>16.33333333333334</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4314,25 +4314,25 @@
         <v>18.91666666666666</v>
       </c>
       <c r="C38">
-        <v>16.25</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="D38">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="E38">
-        <v>15.41666666666667</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="F38">
-        <v>16.33333333333334</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="G38">
-        <v>13.83333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H38">
-        <v>17.16666666666666</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>16.41666666666666</v>
+        <v>16.08333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4340,28 +4340,28 @@
         <v>2012</v>
       </c>
       <c r="B39">
-        <v>18.25</v>
+        <v>18.08333333333334</v>
       </c>
       <c r="C39">
-        <v>15.75</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="D39">
-        <v>15.16666666666667</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="E39">
-        <v>14.83333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="F39">
-        <v>15.66666666666667</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="G39">
-        <v>13.5</v>
+        <v>13.08333333333333</v>
       </c>
       <c r="H39">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="I39">
-        <v>16.16666666666666</v>
+        <v>15.83333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4369,28 +4369,28 @@
         <v>2013</v>
       </c>
       <c r="B40">
-        <v>17.66666666666666</v>
+        <v>17.41666666666666</v>
       </c>
       <c r="C40">
-        <v>15.16666666666667</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>14.58333333333333</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="E40">
-        <v>14.25</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="F40">
-        <v>14.75</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="G40">
-        <v>12.83333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="H40">
-        <v>15.25</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="I40">
-        <v>15.66666666666667</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4398,28 +4398,28 @@
         <v>2014</v>
       </c>
       <c r="B41">
-        <v>16.58333333333334</v>
+        <v>16.25</v>
       </c>
       <c r="C41">
-        <v>14.75</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="D41">
-        <v>13.91666666666667</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="E41">
-        <v>13.58333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="F41">
-        <v>13.91666666666667</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="G41">
-        <v>12.41666666666667</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>14.25</v>
+        <v>13.75</v>
       </c>
       <c r="I41">
-        <v>15.41666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4427,28 +4427,28 @@
         <v>2015</v>
       </c>
       <c r="B42">
-        <v>15.75</v>
+        <v>15.25</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="D42">
-        <v>13.16666666666667</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="E42">
+        <v>12.5</v>
+      </c>
+      <c r="F42">
+        <v>12.58333333333333</v>
+      </c>
+      <c r="G42">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="H42">
         <v>12.91666666666667</v>
       </c>
-      <c r="F42">
-        <v>13.08333333333333</v>
-      </c>
-      <c r="G42">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>13.41666666666667</v>
-      </c>
       <c r="I42">
-        <v>14.91666666666667</v>
+        <v>14.41666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4456,28 +4456,28 @@
         <v>2016</v>
       </c>
       <c r="B43">
-        <v>15.66666666666667</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="C43">
-        <v>13.25</v>
+        <v>12.75</v>
       </c>
       <c r="D43">
-        <v>12.41666666666667</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>12.16666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F43">
-        <v>12.25</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="G43">
-        <v>11.66666666666667</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H43">
-        <v>12.41666666666667</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I43">
-        <v>14.16666666666667</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4485,28 +4485,28 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>15.5</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D44">
-        <v>11.66666666666667</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="E44">
-        <v>11.41666666666667</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="F44">
-        <v>11.66666666666667</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>11.58333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="H44">
-        <v>11.83333333333333</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I44">
-        <v>13.66666666666667</v>
+        <v>12.91666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4514,28 +4514,28 @@
         <v>2018</v>
       </c>
       <c r="B45">
-        <v>14.58333333333333</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="C45">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>11.5</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="E45">
-        <v>11.16666666666667</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F45">
-        <v>11.41666666666667</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="G45">
-        <v>11.41666666666667</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="H45">
-        <v>11.83333333333333</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="I45">
-        <v>13.91666666666667</v>
+        <v>13.16666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4543,25 +4543,25 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>11.5</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="D46">
-        <v>11.25</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E46">
-        <v>11.16666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="F46">
-        <v>10.41666666666667</v>
+        <v>9.666666666666668</v>
       </c>
       <c r="G46">
-        <v>10.83333333333333</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H46">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="I46">
-        <v>14</v>
+        <v>13.08333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4569,22 +4569,22 @@
         <v>2020</v>
       </c>
       <c r="D47">
-        <v>10.33333333333333</v>
+        <v>9.75</v>
       </c>
       <c r="E47">
-        <v>10.5</v>
+        <v>9.833333333333332</v>
       </c>
       <c r="F47">
-        <v>10.41666666666667</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="G47">
+        <v>9.25</v>
+      </c>
+      <c r="H47">
         <v>9.75</v>
       </c>
-      <c r="H47">
-        <v>10.5</v>
-      </c>
       <c r="I47">
-        <v>12.83333333333333</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:9">
